--- a/data/trans_bre/P19C08-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C08-Edad-trans_bre.xlsx
@@ -658,14 +658,14 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.8094542832812064</v>
+        <v>-0.7998057166060212</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.4745939689491919</v>
+        <v>-0.4759600380514956</v>
       </c>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="n">
-        <v>-3.400449719249337</v>
+        <v>-2.665558051445096</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="inlineStr"/>
@@ -680,14 +680,14 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5276671854559402</v>
+        <v>0.5274418726114294</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.015117440307594</v>
+        <v>2.212702543314783</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>1.451162540016259</v>
+        <v>1.500092176166241</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.3617478881464811</v>
+        <v>-0.361747888146481</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2956085956317634</v>
@@ -725,7 +725,7 @@
       </c>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>-0.6221475985711074</v>
+        <v>-0.6221475985711072</v>
       </c>
     </row>
     <row r="8">
@@ -736,19 +736,17 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.6700014957340081</v>
+        <v>-0.6618953358554016</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.116455632678877</v>
+        <v>-1.271657449540247</v>
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>-2.787233329206999</v>
+        <v>-2.344558703684822</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
-      <c r="H8" s="6" t="n">
-        <v>-0.85004696793468</v>
-      </c>
+      <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="inlineStr"/>
     </row>
@@ -760,19 +758,17 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.253991384630043</v>
+        <v>1.188867525735307</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.137407850276626</v>
+        <v>1.160028433189636</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.4369514838413046</v>
+        <v>0.4407467150699451</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
-      <c r="H9" s="6" t="n">
-        <v>4.582346093152005</v>
-      </c>
+      <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="inlineStr"/>
     </row>
@@ -797,7 +793,7 @@
         <v>0.269237165930653</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1408488098149818</v>
+        <v>0.1408488098149819</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01414118674582205</v>
@@ -809,7 +805,7 @@
         <v>1.470165186180482</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2383161091179921</v>
+        <v>0.2383161091179923</v>
       </c>
     </row>
     <row r="11">
@@ -820,22 +816,24 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5344552024246431</v>
+        <v>-0.6528967206132328</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.2423890499013647</v>
+        <v>-0.2081087762233691</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.2874368259126949</v>
+        <v>-0.3628396506958174</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.8315200260247944</v>
+        <v>-0.8624597945985925</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
-      <c r="H11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.6701399911934594</v>
+      </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.7413505650441492</v>
+        <v>-0.8213493579927077</v>
       </c>
     </row>
     <row r="12">
@@ -846,23 +844,21 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7280645225165244</v>
+        <v>0.8689341620826456</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.447397298597501</v>
+        <v>1.530990646507111</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.271188886425516</v>
+        <v>1.270349723923987</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9143242936195296</v>
+        <v>0.9692340201635375</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
-      <c r="J12" s="6" t="n">
-        <v>6.935096007687875</v>
-      </c>
+      <c r="J12" s="6" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -906,14 +902,14 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.8898646189216313</v>
+        <v>-0.8898594867862701</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.625595914850374</v>
+        <v>-1.712633949399768</v>
       </c>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
-        <v>-0.3896561493260914</v>
+        <v>-0.3703987858875828</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
@@ -928,14 +924,14 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9176140087943624</v>
+        <v>0.9232371476549643</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.082654286802994</v>
+        <v>1.000398459554722</v>
       </c>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.6053561128134475</v>
+        <v>0.6008224126784746</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
@@ -963,7 +959,7 @@
         <v>-0.3451386114414234</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.1714375968437905</v>
+        <v>-0.1714375968437904</v>
       </c>
       <c r="G16" s="6" t="inlineStr">
         <is>
@@ -977,7 +973,7 @@
         <v>-0.5852180742869795</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.3335780928965538</v>
+        <v>-0.3335780928965537</v>
       </c>
     </row>
     <row r="17">
@@ -991,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.461556349611662</v>
+        <v>-1.723368870894947</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.531278481887868</v>
+        <v>-1.559176833656604</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.9955802425830854</v>
+        <v>-1.007476947003287</v>
       </c>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="inlineStr"/>
@@ -1012,16 +1008,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.168287147596682</v>
+        <v>2.182235037608879</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3825552730321419</v>
+        <v>0.4223340011395093</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4550631052699953</v>
+        <v>0.4075468042248466</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="inlineStr"/>
@@ -1072,16 +1068,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.9913639531498845</v>
+        <v>-1.079854783924109</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.872328652423799</v>
+        <v>-1.923331257864466</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.468455076296493</v>
+        <v>-2.006049557491123</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.7415490218851775</v>
+        <v>-0.7861437483751865</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
@@ -1096,7 +1092,7 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.506141457484438</v>
+        <v>1.782013484555953</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>0</v>
@@ -1105,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.682455354597773</v>
+        <v>0.6793198752636329</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
@@ -1163,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.280041442860348</v>
+        <v>-4.212488563167624</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.464262252111388</v>
+        <v>-1.366258046532463</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="inlineStr"/>
@@ -1184,16 +1180,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.57545612071812</v>
+        <v>3.395170310921477</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0</v>
+        <v>-0.4445229517431548</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.71569513742431</v>
+        <v>3.716157643007596</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3963993840657774</v>
+        <v>0.2695774160444537</v>
       </c>
       <c r="G24" s="6" t="inlineStr"/>
       <c r="H24" s="6" t="inlineStr"/>
@@ -1244,28 +1240,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.1464882896342437</v>
+        <v>-0.1455244595567493</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.4550536620427721</v>
+        <v>-0.4934654088095299</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.1551914593211905</v>
+        <v>-0.1684899804961992</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.5179518820652582</v>
+        <v>-0.5023378876116351</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3938399496924989</v>
+        <v>-0.3429017528365528</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5366016672713348</v>
+        <v>-0.5581917396115574</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.7447160182500271</v>
+        <v>-0.8540732877468672</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.615120371730687</v>
+        <v>-0.6063572044959742</v>
       </c>
     </row>
     <row r="27">
@@ -1276,28 +1272,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.5632854666168655</v>
+        <v>0.5798479095733343</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4017021930801276</v>
+        <v>0.3939780170680079</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3080054495210867</v>
+        <v>0.2961271654211791</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2212736373573889</v>
+        <v>0.2305792535105566</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.77399570378874</v>
+        <v>3.121389724891809</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.041374935754157</v>
+        <v>0.936321419460444</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>6.433543426471918</v>
+        <v>5.4225278288111</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.8349851734152869</v>
+        <v>0.8025010188536807</v>
       </c>
     </row>
     <row r="28">
